--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.112.46022"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -457,7 +456,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -466,7 +464,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -475,7 +472,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -484,7 +480,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -499,7 +494,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -514,7 +508,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -529,7 +522,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -538,7 +530,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -549,7 +540,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1029,7 +1019,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1276,8 +1266,8 @@
       <c r="B13" s="0">
         <v>3</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>12</v>
+      <c r="C13" s="1">
+        <v>5E-04</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>6</v>
@@ -1333,8 +1323,8 @@
       <c r="B16" s="0">
         <v>20</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>12</v>
+      <c r="C16" s="1">
+        <v>5E-04</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>8</v>
@@ -1407,8 +1397,8 @@
       <c r="B20" s="0">
         <v>3</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>12</v>
+      <c r="C20" s="1">
+        <v>5E-04</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>8</v>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -190,7 +190,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,7 +198,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,7 +210,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 3" xfId="20"/>
+    <cellStyle name="Accent 3 1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -283,15 +283,15 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="22.13"/>
   </cols>
@@ -660,13 +660,13 @@
         <v>9E-005</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>8</v>
+      <c r="F22" s="0" t="n">
+        <v>0.7576</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,7 +801,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -824,7 +824,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -63,6 +63,9 @@
     <t xml:space="preserve">4way</t>
   </si>
   <si>
+    <t xml:space="preserve">16*8</t>
+  </si>
+  <si>
     <t xml:space="preserve">ConvNext_v2 _nano</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">ConvNext_v2_nano_TPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16*8</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>9E-005</v>
@@ -512,18 +512,18 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>16</v>
+      <c r="E12" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.9052</v>
+        <v>0.9012</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C13" s="3" t="n">
@@ -532,43 +532,43 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F13" s="0" t="n">
+      <c r="E13" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.9052</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>0.9122</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>0.8193</v>
-      </c>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>10</v>
@@ -583,12 +583,12 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.8457</v>
+        <v>0.8193</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10</v>
@@ -599,54 +599,54 @@
       <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>8</v>
+      <c r="E17" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="n">
+        <v>0.8457</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <v>0.8267</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="n">
+      <c r="C20" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F20" s="1" t="n">
         <v>0.6876</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0.8801</v>
+      <c r="G20" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,49 +660,49 @@
         <v>9E-005</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F22" s="0" t="n">
+        <v>0.8801</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>0.7576</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>0.7313</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>0.0005</v>
@@ -714,70 +714,89 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.8372</v>
+        <v>0.7313</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>20</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.0005</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0.8372</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F27" s="1" t="n">
+      <c r="E28" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>0.8602</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="30" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0.8598</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <v>0.8598</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="3" t="n">
+      <c r="B31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="0" t="n">
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>0.8832</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -63,31 +63,31 @@
     <t xml:space="preserve">4way</t>
   </si>
   <si>
+    <t xml:space="preserve">ConvNext_v2 _nano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                batch32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_nano_heavier_classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_nano_lighter_classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effnet(baseline code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_nano_TPU</t>
+  </si>
+  <si>
     <t xml:space="preserve">16*8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2 _nano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2_large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                batch32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2_nano_heavier_classifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2_nano_lighter_classifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effnet(baseline code)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2_nano_TPU</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,8 +512,8 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>13</v>
+      <c r="E12" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0.9012</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>10</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>10</v>
@@ -646,12 +646,12 @@
         <v>0.6876</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>10</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>3</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>20</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>3</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="30" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>10</v>
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>0.8598</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>10</v>
@@ -791,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0.8832</v>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -153,7 +153,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,8 +180,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,8 +205,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -211,6 +218,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Accent 3 1" xfId="20"/>
+    <cellStyle name="Accent 3" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -283,7 +291,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,6 +803,46 @@
       </c>
       <c r="F31" s="0" t="n">
         <v>0.8832</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.8559</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve">16*8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_nano_train+valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train+valid(no valid)</t>
   </si>
 </sst>
 </file>
@@ -153,7 +159,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,8 +189,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,12 +214,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -218,7 +235,8 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Accent 3 1" xfId="20"/>
-    <cellStyle name="Accent 3" xfId="21"/>
+    <cellStyle name="Accent 3 2" xfId="21"/>
+    <cellStyle name="Accent 3" xfId="22"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -290,8 +308,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -772,7 +790,7 @@
       <c r="B30" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="5" t="n">
         <v>9E-005</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -792,7 +810,7 @@
       <c r="B31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="5" t="n">
         <v>0.0002</v>
       </c>
       <c r="D31" s="0" t="s">
@@ -812,13 +830,13 @@
       <c r="B32" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="5" t="n">
         <v>0.0003</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="0" t="n">
@@ -832,17 +850,40 @@
       <c r="B33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="5" t="n">
         <v>0.0001</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>0.8559</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.9195</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -45,43 +45,43 @@
     <t xml:space="preserve">비고</t>
   </si>
   <si>
+    <t xml:space="preserve">effnet(baseline code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2 _nano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_atto</t>
+  </si>
+  <si>
     <t xml:space="preserve">ConvNext_v2_nano</t>
   </si>
   <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2_base</t>
+    <t xml:space="preserve">                batch32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_nano_heavier_classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_nano_lighter_classifier</t>
   </si>
   <si>
     <t xml:space="preserve">6way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2_atto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2 _nano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2_large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                batch32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2_nano_heavier_classifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvNext_v2_nano_lighter_classifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effnet(baseline code)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effnet</t>
   </si>
   <si>
     <t xml:space="preserve">ConvNext_v2_nano_TPU</t>
@@ -202,27 +202,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,7 +236,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Accent 3 1" xfId="20"/>
     <cellStyle name="Accent 3 2" xfId="21"/>
-    <cellStyle name="Accent 3" xfId="22"/>
+    <cellStyle name="Accent 3 3" xfId="22"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,35 +346,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.8193</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.0001</v>
+      <c r="B3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.0005</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -383,18 +371,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.7772</v>
+        <v>0.7313</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.0002</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.0005</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -403,62 +391,52 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.7928</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>0.8372</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>7E-005</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.7858</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>0.8602</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>9E-005</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.8844</v>
+        <v>0.8193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>10</v>
@@ -466,68 +444,46 @@
       <c r="C8" s="3" t="n">
         <v>9E-005</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.8952</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>0.8457</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>9E-005</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>16</v>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.9068</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>0.8267</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.8946</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -535,312 +491,317 @@
       <c r="C12" s="3" t="n">
         <v>9E-005</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.9012</v>
+        <v>0.8946</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C14" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.9052</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>0.9052</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="B15" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="C15" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>0.9122</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>0.8193</v>
-      </c>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="n">
+      <c r="C17" s="4" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.8457</v>
-      </c>
+        <v>0.8193</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>8</v>
+      <c r="C18" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.8267</v>
-      </c>
+        <v>0.7772</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0.7928</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>7E-005</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0.7858</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="n">
+      <c r="C22" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F22" s="1" t="n">
         <v>0.6876</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>0.8801</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F23" s="0" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>0.7576</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>0.7313</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E27" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.8372</v>
+        <v>0.8844</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E28" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.8602</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+        <v>0.8952</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="C29" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0.9068</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F32" s="1" t="n">
         <v>0.8598</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0.8832</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0.871</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,42 +812,81 @@
         <v>10</v>
       </c>
       <c r="C33" s="5" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.8832</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5" t="n">
         <v>0.0001</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F35" s="0" t="n">
         <v>0.8559</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>9E-005</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F35" s="0" t="n">
+      <c r="B37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F37" s="0" t="n">
         <v>0.9195</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G37" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -884,6 +884,29 @@
         <v>0.9195</v>
       </c>
       <c r="G37" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>23</v>
       </c>
     </row>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -309,7 +309,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -900,8 +900,8 @@
       <c r="D38" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>21</v>
+      <c r="E38" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>0.9375</v>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">train+valid(no valid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9way</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,8 +195,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,8 +232,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -237,6 +247,7 @@
     <cellStyle name="Accent 3 1" xfId="20"/>
     <cellStyle name="Accent 3 2" xfId="21"/>
     <cellStyle name="Accent 3 3" xfId="22"/>
+    <cellStyle name="Accent 3" xfId="23"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -306,10 +317,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -784,7 +795,8 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -888,7 +900,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="0" t="n">
@@ -907,6 +919,29 @@
         <v>0.9375</v>
       </c>
       <c r="G38" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.9437</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>23</v>
       </c>
     </row>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -66,6 +66,9 @@
     <t xml:space="preserve">ConvNext_v2_large</t>
   </si>
   <si>
+    <t xml:space="preserve">small batch 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">ConvNext_v2_atto</t>
   </si>
   <si>
@@ -97,6 +100,18 @@
   </si>
   <si>
     <t xml:space="preserve">9way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_base_train+valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_atto_train+valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large batch 256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large batch 128</t>
   </si>
 </sst>
 </file>
@@ -162,7 +177,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,8 +213,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -232,12 +250,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -247,7 +269,8 @@
     <cellStyle name="Accent 3 1" xfId="20"/>
     <cellStyle name="Accent 3 2" xfId="21"/>
     <cellStyle name="Accent 3 3" xfId="22"/>
-    <cellStyle name="Accent 3" xfId="23"/>
+    <cellStyle name="Accent 3 4" xfId="23"/>
+    <cellStyle name="Accent 3" xfId="24"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -317,10 +340,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,6 +507,9 @@
       <c r="F9" s="1" t="n">
         <v>0.8267</v>
       </c>
+      <c r="G9" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -494,7 +520,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -514,7 +540,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>10</v>
@@ -534,7 +560,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>20</v>
@@ -581,7 +607,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10</v>
@@ -602,7 +628,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>10</v>
@@ -622,7 +648,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
@@ -643,7 +669,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>10</v>
@@ -672,7 +698,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>20</v>
@@ -690,12 +716,12 @@
         <v>0.6876</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>10</v>
@@ -715,7 +741,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>10</v>
@@ -744,7 +770,7 @@
         <v>9E-005</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>16</v>
@@ -755,7 +781,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>10</v>
@@ -764,7 +790,7 @@
         <v>9E-005</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>16</v>
@@ -776,7 +802,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>20</v>
@@ -785,7 +811,7 @@
         <v>9E-005</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>16</v>
@@ -798,7 +824,7 @@
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>10</v>
@@ -810,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>0.8598</v>
@@ -818,7 +844,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>10</v>
@@ -830,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>0.8832</v>
@@ -838,7 +864,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>10</v>
@@ -850,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>0.871</v>
@@ -858,7 +884,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>10</v>
@@ -870,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>0.8559</v>
@@ -878,7 +904,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>10</v>
@@ -896,12 +922,12 @@
         <v>0.9195</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>20</v>
@@ -910,7 +936,7 @@
         <v>9E-005</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>16</v>
@@ -919,12 +945,12 @@
         <v>0.9375</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>20</v>
@@ -933,7 +959,7 @@
         <v>9E-005</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>16</v>
@@ -942,7 +968,73 @@
         <v>0.9437</v>
       </c>
       <c r="G39" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.9395</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.9358</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>23</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>9E-005</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -254,7 +254,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +270,7 @@
     <cellStyle name="Accent 3 2" xfId="21"/>
     <cellStyle name="Accent 3 3" xfId="22"/>
     <cellStyle name="Accent 3 4" xfId="23"/>
-    <cellStyle name="Accent 3" xfId="24"/>
+    <cellStyle name="Accent 3 5" xfId="24"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -343,7 +343,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1032,6 +1032,9 @@
       </c>
       <c r="E42" s="0" t="n">
         <v>128</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.9452</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>29</v>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t xml:space="preserve">large batch 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step scheduler (step=4, gamma=0.85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp scheduler (gamma=0.9)</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,8 +222,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,8 +267,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -271,6 +284,7 @@
     <cellStyle name="Accent 3 3" xfId="22"/>
     <cellStyle name="Accent 3 4" xfId="23"/>
     <cellStyle name="Accent 3 5" xfId="24"/>
+    <cellStyle name="Accent 3" xfId="25"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -340,10 +354,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -691,7 +705,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1038,6 +1052,52 @@
       </c>
       <c r="G42" s="0" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.9297</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.9362</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -183,7 +183,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,8 +225,14 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,12 +273,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="27" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -284,7 +298,9 @@
     <cellStyle name="Accent 3 3" xfId="22"/>
     <cellStyle name="Accent 3 4" xfId="23"/>
     <cellStyle name="Accent 3 5" xfId="24"/>
-    <cellStyle name="Accent 3" xfId="25"/>
+    <cellStyle name="Accent 3 6" xfId="25"/>
+    <cellStyle name="Accent 3 7" xfId="26"/>
+    <cellStyle name="Accent 3" xfId="27"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -354,10 +370,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1073,7 +1089,7 @@
       <c r="F44" s="0" t="n">
         <v>0.9297</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1096,7 +1112,30 @@
       <c r="F45" s="0" t="n">
         <v>0.9362</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.9396</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>31</v>
       </c>
     </row>

--- a/contest1_result/MeetTest_ScoreSheet.xlsx
+++ b/contest1_result/MeetTest_ScoreSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
   <si>
     <t xml:space="preserve">model, runtime</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">exp scheduler (gamma=0.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvNext_v2_tiny_train+valid</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,8 +234,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,12 +287,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="27" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="28" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -300,7 +310,8 @@
     <cellStyle name="Accent 3 5" xfId="24"/>
     <cellStyle name="Accent 3 6" xfId="25"/>
     <cellStyle name="Accent 3 7" xfId="26"/>
-    <cellStyle name="Accent 3" xfId="27"/>
+    <cellStyle name="Accent 3 8" xfId="27"/>
+    <cellStyle name="Accent 3" xfId="28"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -370,10 +381,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1136,6 +1147,29 @@
         <v>0.9396</v>
       </c>
       <c r="G46" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.9548</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>31</v>
       </c>
     </row>
